--- a/H743-Motor-A/Project Outputs/Motor-Encoder.xls.xlsx
+++ b/H743-Motor-A/Project Outputs/Motor-Encoder.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zls\Desktop\Land_Meter_PCB\H743-Motor-A\Project Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78131ACA-B70C-4A8A-8066-74ABA89AA80D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD9E47-78E9-4D1C-8747-D3EDFA6332C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1620" windowWidth="23325" windowHeight="11700" xr2:uid="{7EDE1C2A-46CE-4007-A5DF-0F97CD7BF29D}"/>
+    <workbookView xWindow="540" yWindow="1695" windowWidth="23325" windowHeight="12930" xr2:uid="{7EDE1C2A-46CE-4007-A5DF-0F97CD7BF29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor-Encoder" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>Comment</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Samtec</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>P1, P3, P4</t>
   </si>
   <si>
@@ -256,6 +253,21 @@
   </si>
   <si>
     <t>RCWE0603R200FKEA</t>
+  </si>
+  <si>
+    <t>Totoal Quantity</t>
+  </si>
+  <si>
+    <t>IC TRANSCEIVER FULL 1/1 12TDFN</t>
+  </si>
+  <si>
+    <t>IC MOTOR DRVR BIPOLAR 0-5V 16FPN</t>
+  </si>
+  <si>
+    <t>IC DELAY BLOCK 8TAP PROG TSOT23</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 8POS 1.27MM</t>
   </si>
 </sst>
 </file>
@@ -336,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,6 +357,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,23 +677,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304B9E8F-463F-4570-A74C-0C3F0A473B24}">
-  <dimension ref="A1:F19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,8 +715,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -714,13 +738,17 @@
       <c r="F2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="6">
+        <f>F2*2+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -734,8 +762,12 @@
       <c r="F3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G19" si="0">F3*2+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -754,8 +786,12 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -766,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -774,8 +810,12 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -794,270 +834,329 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CMotor/ Encoder
+BOM</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>